--- a/medicine/Médecine vétérinaire/Docteur_Dolittle_(film)/Docteur_Dolittle_(film).xlsx
+++ b/medicine/Médecine vétérinaire/Docteur_Dolittle_(film)/Docteur_Dolittle_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur Dolittle (Doctor Dolittle) est un film américain réalisé par Betty Thomas, sorti en 1998 et inspiré du personnage créé par l'écrivain anglais Hugh Lofting.
 Il a été suivi de quatre autres films : Docteur Dolittle 2 en 2001, Docteur Dolittle 3 en 2006, Docteur Dolittle 4 en 2007 et Docteur Dolittle 5 en 2009.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">John Dolittle, médecin réputé, vit heureux avec sa famille à San Francisco. Un jour, il découvre qu'il peut comprendre les animaux et communiquer avec eux. Ce curieux phénomène bouleverse sa vie, car les animaux sont exigeants au point de lui prendre tout son temps libre. Sa femme Lisa et ses collègues commencent à prendre John Dolittle pour un fou.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre original : Doctor Dolittle (également graphié Dr. Dolittle)
@@ -566,21 +582,21 @@
 Production associée : Steph Lady
 Sociétés de production : Davis Entertainment et Joseph M. Singer Entertainment, présenté par Twentieth Century Fox
 Société de distribution : Twentieth Century Fox (États-Unis) ; UGC Fox Distribution (France)
-Budget : 71,5 millions de $[1]
+Budget : 71,5 millions de $
 Pays de production :  États-Unis
 Langue originale : anglais
 Format : couleur (DeLuxe) – 35 mm – 1,85:1 (Panavision) – son DTS / Dolby Digital / SDDS
 Genre : comédie, fantastique
 Durée : 85 minutes
-Dates de sortie[2] :
-États-Unis, Québec : 26 juin 1998[3]
-France, Belgique, Suisse romande : 12 août 1998[4],[5],[6]
+Dates de sortie :
+États-Unis, Québec : 26 juin 1998
+France, Belgique, Suisse romande : 12 août 1998
 Classification :
 États-Unis : accord parental recommandé, film déconseillé aux moins de 13 ans (PG-13 - Parents Strongly Cautioned)[N 1]
-France : tous publics (conseillé à partir de 8 ans)[4]
-Belgique : tous publics (Alle Leeftijden)[5]
-Suisse romande : interdit aux moins de 7 ans[7]
-Québec : tous publics (G - General Rating)[3]
+France : tous publics (conseillé à partir de 8 ans)
+Belgique : tous publics (Alle Leeftijden)
+Suisse romande : interdit aux moins de 7 ans
+Québec : tous publics (G - General Rating)
 Version française :
 Société de doublage : Dubbing Brothers
 Direction artistique : Jean-Pierre Dorat
@@ -614,7 +630,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eddie Murphy (VF : Med Hondo ; VQ : François L'Écuyer) : Dr John Dolittle
 Kristen Wilson (VF : Micky Sébastian ; VQ : Élise Bertrand) : Lisa Dolittle
@@ -665,6 +683,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -691,6 +711,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -716,18 +738,89 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Source : Internet Movie Database[8]
-Récompenses
-1998
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Source : Internet Movie Database
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Docteur_Dolittle_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Dolittle_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1998
 Goldene Leinwand : écran d'or[N 2]
 Prix Bogey : prix Bogey d’or[N 3]
 1999
 ASCAP Film and Television Music Awards : ASCAP Award des chansons les plus jouées de films cinématographiques pour Timbaland ("Are You That Somebody?")
-BMI Film and TV Awards : prix BMI de la meilleure musique de film pour Richard Gibbs
-Nominations
-1999
+BMI Film and TV Awards : prix BMI de la meilleure musique de film pour Richard Gibbs</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Docteur_Dolittle_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Dolittle_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1999
 Blockbuster Entertainment Awards :
 Meilleur acteur dans une comédie pour Eddie Murphy
 Meilleur second rôle masculin dans une comédie pour Oliver Platt
@@ -743,62 +836,66 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Docteur_Dolittle_(film)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Docteur_Dolittle_(film)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Docteur_Dolittle_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Dolittle_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Éditions en vidéo</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le film Docteur Dolittle est sorti en DVD le 4 avril 2001[9]. Le film est également sorti en VOD le 1er août 2014[4].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le film Docteur Dolittle est sorti en DVD le 4 avril 2001. Le film est également sorti en VOD le 1er août 2014.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Docteur_Dolittle_(film)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Docteur_Dolittle_(film)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Docteur_Dolittle_(film)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Dolittle_(film)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>L'histoire avait précédemment été adaptée en 1967 par Richard Fleischer sous le titre L'Extravagant Docteur Dolittle, avec Rex Harrison et Samantha Eggar.</t>
         </is>
